--- a/Login_Data.xlsx
+++ b/Login_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\Data-Driven-Tests-NUnit-Selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\20424110 (3)\20424110\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348CEED1-D81A-49BF-A000-E2CD8ED3588B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC213BE-565F-4730-9D28-7594778D18F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="2016" windowWidth="17280" windowHeight="8964" xr2:uid="{B72D69E2-FF47-4DC0-B13E-D7357E2C4819}"/>
   </bookViews>
@@ -32,22 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
-  <si>
-    <t>pvqui0910</t>
-  </si>
-  <si>
-    <t>narutc223</t>
-  </si>
-  <si>
-    <t>naruto12222</t>
-  </si>
-  <si>
-    <t>narutc12kl3</t>
-  </si>
-  <si>
-    <t>naruto123@</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Password</t>
   </si>
@@ -59,13 +44,22 @@
   </si>
   <si>
     <t>Your login attempt was not successful. Please try again.</t>
+  </si>
+  <si>
+    <t>18CK1.CCKCPMT5.20424092</t>
+  </si>
+  <si>
+    <t>!@#$%%!@_</t>
+  </si>
+  <si>
+    <t>' or 1=1--</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +89,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -127,6 +128,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,14 +445,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3A1528-94C8-44C9-B254-608EF4BF7ADB}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C20" sqref="A18:C20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="16.77734375" style="1"/>
@@ -458,80 +460,70 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
